--- a/data/trans_orig/NIVEL_ESTUDIOS_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/NIVEL_ESTUDIOS_R-Estudios-trans_orig.xlsx
@@ -741,12 +741,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -924,12 +924,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -939,12 +939,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -967,12 +967,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88652</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1002,12 +1002,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127887</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>216871</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1232,12 +1232,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1310,12 +1310,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>454467</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>433941</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>99,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>888738</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1395,12 +1395,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>99,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1423,12 +1423,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1438,12 +1438,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>152167</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>99,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1688,12 +1688,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>195586</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>348069</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>99,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1766,12 +1766,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1836,12 +1836,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1851,12 +1851,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1879,12 +1879,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1949,12 +1949,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2874,12 +2874,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2889,12 +2889,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2917,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2952,12 +2952,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2987,12 +2987,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3002,12 +3002,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3030,12 +3030,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>227787</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3065,12 +3065,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>397441</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>626612</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3275,12 +3275,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3295,12 +3295,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3310,12 +3310,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3330,12 +3330,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3373,12 +3373,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1406959</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3388,12 +3388,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1384866</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -3443,12 +3443,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2793932</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3536,12 +3536,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3556,12 +3556,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>457992</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3731,12 +3731,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>442098</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3766,12 +3766,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -3786,12 +3786,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>901672</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3829,12 +3829,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3844,12 +3844,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3879,12 +3879,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3899,12 +3899,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3942,12 +3942,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3957,12 +3957,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3977,12 +3977,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3992,12 +3992,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4012,12 +4012,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4867,12 +4867,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4882,12 +4882,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4902,12 +4902,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4917,12 +4917,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4937,12 +4937,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4952,12 +4952,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4980,12 +4980,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4995,12 +4995,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5015,12 +5015,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5030,12 +5030,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5050,12 +5050,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5065,12 +5065,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5093,12 +5093,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215048</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>272866</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5143,12 +5143,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5163,12 +5163,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>488693</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5178,12 +5178,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5323,12 +5323,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -5338,12 +5338,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -5358,12 +5358,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -5373,12 +5373,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -5393,12 +5393,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -5408,12 +5408,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5436,12 +5436,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862370</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>863381</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5451,12 +5451,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5471,12 +5471,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>871101</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>872195</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>99,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5506,12 +5506,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1734524</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1735576</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5521,12 +5521,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>99,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5549,12 +5549,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5564,12 +5564,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5584,12 +5584,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5599,12 +5599,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5619,12 +5619,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5779,12 +5779,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>377837</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378943</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5794,12 +5794,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5814,12 +5814,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>415733</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5829,12 +5829,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5849,12 +5849,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>794693</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>795818</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5864,12 +5864,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>99,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5892,12 +5892,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5907,12 +5907,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5927,12 +5927,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5942,12 +5942,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5962,12 +5962,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5977,12 +5977,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6005,12 +6005,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6040,12 +6040,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6055,12 +6055,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6075,12 +6075,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6090,12 +6090,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6930,12 +6930,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -6945,12 +6945,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -6965,12 +6965,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -6980,12 +6980,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -7000,12 +7000,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -7015,12 +7015,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7043,12 +7043,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -7058,12 +7058,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -7078,12 +7078,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -7113,12 +7113,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -7128,12 +7128,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7156,12 +7156,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97590</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -7171,12 +7171,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>119681</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7206,12 +7206,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -7226,12 +7226,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>218158</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7241,12 +7241,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7386,12 +7386,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -7401,12 +7401,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -7456,12 +7456,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -7471,12 +7471,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7499,12 +7499,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>356401</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7514,12 +7514,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -7534,12 +7534,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>353748</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7549,12 +7549,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -7569,12 +7569,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>711001</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7584,12 +7584,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7612,12 +7612,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -7627,12 +7627,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -7647,12 +7647,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -7662,12 +7662,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -7682,12 +7682,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -7697,12 +7697,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7842,12 +7842,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>223940</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7857,12 +7857,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -7877,12 +7877,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>282418</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>507047</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7927,12 +7927,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>99,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7955,12 +7955,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -7970,12 +7970,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -7990,12 +7990,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -8005,12 +8005,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -8025,12 +8025,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -8040,12 +8040,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -8068,12 +8068,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -8083,12 +8083,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -8103,12 +8103,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -8118,12 +8118,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -8138,12 +8138,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -8153,12 +8153,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/NIVEL_ESTUDIOS_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/NIVEL_ESTUDIOS_R-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en País Vasco</t>
+          <t>Nivel de estudios en País Vasco (tasa de respuesta: 99,55%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2609,7 +2609,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en Andalucia</t>
+          <t>Nivel de estudios en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4672,7 +4672,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en C.Valenciana</t>
+          <t>Nivel de estudios en C.Valenciana (tasa de respuesta: 99,46%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6735,7 +6735,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en Barcelona</t>
+          <t>Nivel de estudios en Barcelona (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/NIVEL_ESTUDIOS_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/NIVEL_ESTUDIOS_R-Estudios-trans_orig.xlsx
@@ -962,7 +962,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
@@ -1075,17 +1075,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1110,17 +1110,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2104,32 +2104,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>143741</t>
+          <t>165841</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>162622</t>
+          <t>187181</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2139,32 +2139,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>185708</t>
+          <t>218568</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>207449</t>
+          <t>242749</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2174,32 +2174,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>333201</t>
+          <t>390036</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>362732</t>
+          <t>423005</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>27,78%</t>
         </is>
       </c>
     </row>
@@ -2217,32 +2217,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>442789</t>
+          <t>452794</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>465072</t>
+          <t>474784</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,32%</t>
+          <t>64,11%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>63,59%</t>
+          <t>62,51%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>66,79%</t>
+          <t>65,55%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2252,32 +2252,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>422155</t>
+          <t>434216</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>446370</t>
+          <t>459550</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>55,96%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>54,37%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>58,86%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2287,32 +2287,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>872285</t>
+          <t>892292</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>905703</t>
+          <t>927687</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>61,12%</t>
+          <t>59,84%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>59,97%</t>
+          <t>58,59%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>60,92%</t>
         </is>
       </c>
     </row>
@@ -2330,102 +2330,102 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>81205</t>
+          <t>76632</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>97016</t>
+          <t>91789</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>11,54%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12,67%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>122043</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>113922</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>130672</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15,28%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>14,26%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>16,36%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>205603</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>194636</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>217755</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
           <t>12,78%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>11,66%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>13,93%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>758</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>128211</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>118894</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>137928</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>16,91%</t>
-        </is>
-      </c>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>15,68%</t>
-        </is>
-      </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>18,19%</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>1266</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>217200</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>205542</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>229275</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>14,93%</t>
-        </is>
-      </c>
-      <c r="V18" s="2" t="inlineStr">
-        <is>
-          <t>14,13%</t>
-        </is>
-      </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>14,3%</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -4172,12 +4172,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>306049</t>
+          <t>300527</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>534554</t>
+          <t>536181</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4187,12 +4187,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4207,12 +4207,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>315738</t>
+          <t>317883</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>510127</t>
+          <t>509488</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4242,12 +4242,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>718667</t>
+          <t>707035</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1017255</t>
+          <t>1002857</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4257,12 +4257,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>23,18%</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1303963</t>
+          <t>1301835</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1643135</t>
+          <t>1646872</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4300,12 +4300,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,14%</t>
+          <t>62,04%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>78,3%</t>
+          <t>78,48%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4320,12 +4320,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1267228</t>
+          <t>1272483</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1619132</t>
+          <t>1614286</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4335,12 +4335,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>56,87%</t>
+          <t>57,1%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>72,44%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4355,12 +4355,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>2613705</t>
+          <t>2629667</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>3104482</t>
+          <t>3110105</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>60,41%</t>
+          <t>60,78%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>71,75%</t>
+          <t>71,88%</t>
         </is>
       </c>
     </row>
@@ -4398,12 +4398,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>154972</t>
+          <t>151185</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>272941</t>
+          <t>271425</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -4433,12 +4433,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>289346</t>
+          <t>285103</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>457621</t>
+          <t>457787</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
@@ -4468,12 +4468,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488859</t>
+          <t>504920</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>705200</t>
+          <t>700929</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,2%</t>
         </is>
       </c>
     </row>
@@ -8298,12 +8298,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>207327</t>
+          <t>205158</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>243318</t>
+          <t>243403</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -8313,12 +8313,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -8333,12 +8333,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>263628</t>
+          <t>264723</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>303731</t>
+          <t>302871</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -8348,12 +8348,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -8368,12 +8368,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>482307</t>
+          <t>480965</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>535304</t>
+          <t>532770</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -8383,12 +8383,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>37,03%</t>
         </is>
       </c>
     </row>
@@ -8411,12 +8411,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>334981</t>
+          <t>337560</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>376418</t>
+          <t>377456</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -8426,12 +8426,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,23%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>55,32%</t>
+          <t>55,47%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -8446,12 +8446,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>334615</t>
+          <t>335988</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>374814</t>
+          <t>376324</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -8461,12 +8461,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>49,44%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -8481,12 +8481,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>682616</t>
+          <t>684823</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>741329</t>
+          <t>745421</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -8496,12 +8496,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>47,45%</t>
+          <t>47,6%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>51,82%</t>
         </is>
       </c>
     </row>
@@ -8524,12 +8524,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>81530</t>
+          <t>80235</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>120107</t>
+          <t>119480</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8539,12 +8539,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -8559,12 +8559,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>103000</t>
+          <t>103581</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>139533</t>
+          <t>140948</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8574,12 +8574,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -8594,12 +8594,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>195678</t>
+          <t>192757</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>248472</t>
+          <t>244643</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8609,12 +8609,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>17,01%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/NIVEL_ESTUDIOS_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/NIVEL_ESTUDIOS_R-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en País Vasco (tasa de respuesta: 99,55%)</t>
+          <t>Nivel de estudios en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -957,12 +957,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83560</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>122043</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>989</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>205603</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
@@ -1070,22 +1070,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83560</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83560</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83560</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>122043</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>122043</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>122043</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1140,22 +1140,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>989</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>205603</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>205603</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>205603</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>464369</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1335,12 +1335,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>446925</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1370,12 +1370,12 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>2751</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>911294</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
@@ -1526,22 +1526,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>464369</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>464369</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>464369</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1561,22 +1561,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>446925</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>446925</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>446925</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1596,22 +1596,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>2751</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>911294</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>911294</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>911294</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>229650</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1713,12 +1713,12 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>406019</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
@@ -1982,22 +1982,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>229650</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>229650</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>229650</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2052,22 +2052,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>406019</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>406019</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>406019</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2099,107 +2099,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>165841</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>187181</t>
+          <t>556806</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>229650</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>218568</t>
+          <t>463504</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>242749</t>
+          <t>535004</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>406019</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>390036</t>
+          <t>954644</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>423005</t>
+          <t>1065365</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>25,03%</t>
         </is>
       </c>
     </row>
@@ -2212,107 +2212,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>464369</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>452794</t>
+          <t>1235608</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>474784</t>
+          <t>1334739</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,11%</t>
+          <t>62,69%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,51%</t>
+          <t>60,16%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>65,55%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>446925</t>
+          <t>1271426</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>434216</t>
+          <t>1233190</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>459550</t>
+          <t>1315733</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>57,74%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>54,37%</t>
+          <t>56,01%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>59,76%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>2751</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>911294</t>
+          <t>2559113</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>892292</t>
+          <t>2492865</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>927687</t>
+          <t>2618396</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>60,13%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>60,92%</t>
+          <t>61,53%</t>
         </is>
       </c>
     </row>
@@ -2325,107 +2325,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>83560</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76632</t>
+          <t>227253</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>91789</t>
+          <t>286688</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>122043</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>113922</t>
+          <t>403842</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>130672</t>
+          <t>466629</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>989</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>205603</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>194636</t>
+          <t>649831</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>217755</t>
+          <t>736848</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>17,31%</t>
         </is>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>724297</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>724297</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>724297</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2473,22 +2473,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>3004</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>798619</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>798619</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>798619</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2508,22 +2508,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>8561</t>
+          <t>4893</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1522916</t>
+          <t>4255797</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1522916</t>
+          <t>4255797</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1522916</t>
+          <t>4255797</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2609,7 +2609,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en Andalucia (tasa de respuesta: 99,82%)</t>
+          <t>Nivel de estudios en Barcelona (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3020,12 +3020,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -3055,12 +3055,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>492</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
@@ -3133,22 +3133,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3168,22 +3168,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3203,22 +3203,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>492</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>796</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>809</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
@@ -3589,22 +3589,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>796</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3624,22 +3624,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>809</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3659,22 +3659,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3706,12 +3706,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>762</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
@@ -4045,22 +4045,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4080,22 +4080,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>762</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4115,22 +4115,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4162,107 +4162,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224611</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>300527</t>
+          <t>205158</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>536181</t>
+          <t>243403</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>762</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>317883</t>
+          <t>264723</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>509488</t>
+          <t>302871</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507742</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>707035</t>
+          <t>480965</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1002857</t>
+          <t>532770</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>35,29%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>37,03%</t>
         </is>
       </c>
     </row>
@@ -4275,107 +4275,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>796</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1409394</t>
+          <t>357263</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1301835</t>
+          <t>337560</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1646872</t>
+          <t>377456</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>67,16%</t>
+          <t>52,51%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>55,47%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>809</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1272483</t>
+          <t>335988</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1614286</t>
+          <t>376324</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>62,22%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>57,1%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>72,44%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>2795882</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>2629667</t>
+          <t>684823</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>3110105</t>
+          <t>745421</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>64,62%</t>
+          <t>49,48%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>60,78%</t>
+          <t>47,6%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>51,82%</t>
         </is>
       </c>
     </row>
@@ -4388,107 +4388,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>151185</t>
+          <t>80235</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>271425</t>
+          <t>119480</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>285103</t>
+          <t>103581</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>457787</t>
+          <t>140948</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>492</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>504920</t>
+          <t>192757</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>700929</t>
+          <t>244643</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>17,01%</t>
         </is>
       </c>
     </row>
@@ -4501,22 +4501,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4536,22 +4536,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3004</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -4571,22 +4571,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>4893</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4326887</t>
+          <t>1438605</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4326887</t>
+          <t>1438605</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4326887</t>
+          <t>1438605</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -6735,7 +6735,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en Barcelona (tasa de respuesta: 99,8%)</t>
+          <t>Nivel de estudios en País Vasco (tasa de respuesta: 99,55%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7146,12 +7146,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -7181,12 +7181,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -7216,12 +7216,12 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
@@ -7259,22 +7259,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -7294,22 +7294,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -7329,22 +7329,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -7489,12 +7489,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -7524,12 +7524,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -7559,12 +7559,12 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>5173</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
@@ -7715,22 +7715,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -7750,22 +7750,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -7785,22 +7785,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>5173</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -7832,12 +7832,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -7867,12 +7867,12 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -7902,12 +7902,12 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
@@ -8171,22 +8171,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -8206,22 +8206,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8241,22 +8241,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8288,107 +8288,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>224611</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>205158</t>
+          <t>165841</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>243403</t>
+          <t>187181</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>264723</t>
+          <t>218568</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>302871</t>
+          <t>242749</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>507742</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>480965</t>
+          <t>390036</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>532770</t>
+          <t>423005</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>27,78%</t>
         </is>
       </c>
     </row>
@@ -8401,107 +8401,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>357263</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>337560</t>
+          <t>452794</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>377456</t>
+          <t>474784</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,51%</t>
+          <t>64,11%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,61%</t>
+          <t>62,51%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>55,47%</t>
+          <t>65,55%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>335988</t>
+          <t>434216</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>376324</t>
+          <t>459550</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>46,77%</t>
+          <t>55,96%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>54,37%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>49,64%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>5173</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>684823</t>
+          <t>892292</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>745421</t>
+          <t>927687</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>59,84%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>58,59%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>51,82%</t>
+          <t>60,92%</t>
         </is>
       </c>
     </row>
@@ -8514,107 +8514,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>80235</t>
+          <t>76632</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>119480</t>
+          <t>91789</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>103581</t>
+          <t>113922</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>140948</t>
+          <t>130672</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>192757</t>
+          <t>194636</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>244643</t>
+          <t>217755</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>14,3%</t>
         </is>
       </c>
     </row>
@@ -8627,22 +8627,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -8662,22 +8662,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -8697,22 +8697,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1438605</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1438605</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1438605</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
